--- a/tabel_excel-01.xlsx
+++ b/tabel_excel-01.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLK AMBON\Desktop\husni ridho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652A1267-4B9F-40EB-8A01-C863EE591A61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD83467-3E09-46A7-ACC4-5E479148EB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{9BD6FFC3-1F73-410C-ACDC-1BB443F9255E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{9BD6FFC3-1F73-410C-ACDC-1BB443F9255E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
     <sheet name="Lembar2" sheetId="2" r:id="rId2"/>
     <sheet name="Lembar3" sheetId="4" r:id="rId3"/>
+    <sheet name="Lembar4" sheetId="5" r:id="rId4"/>
+    <sheet name="Lembar5" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk75601770" localSheetId="0">Lembar1!#REF!</definedName>
     <definedName name="_Hlk75616144" localSheetId="0">Lembar1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="165">
   <si>
     <t>A. DAFTAR HADIR  SISWA</t>
   </si>
@@ -342,12 +345,220 @@
   <si>
     <t>ELFINUS D. NANLOHY. ST</t>
   </si>
+  <si>
+    <t>Nama Karyawan</t>
+  </si>
+  <si>
+    <t>Tanggal Masuk Kerja</t>
+  </si>
+  <si>
+    <t>Tanggal Penulisan</t>
+  </si>
+  <si>
+    <t>Absen Masuk</t>
+  </si>
+  <si>
+    <t>Absen Pulang</t>
+  </si>
+  <si>
+    <t>Jumlah Hari Kerja</t>
+  </si>
+  <si>
+    <t>Bon Jovi</t>
+  </si>
+  <si>
+    <t>Paolo Maldini</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Vin Desel</t>
+  </si>
+  <si>
+    <t>Oscar de la Hoya</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Rata2</t>
+  </si>
+  <si>
+    <t>Nilai Max</t>
+  </si>
+  <si>
+    <t>Nilai Min</t>
+  </si>
+  <si>
+    <t>Jumblah Karyawan</t>
+  </si>
+  <si>
+    <t>Total Uang Lembur</t>
+  </si>
+  <si>
+    <t>Jam Lembur</t>
+  </si>
+  <si>
+    <t>Jumlah Jam Kerja</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NAMA KARYAWAN</t>
+  </si>
+  <si>
+    <t>JABATANGAJI POKOK</t>
+  </si>
+  <si>
+    <t>TUNJANGAN</t>
+  </si>
+  <si>
+    <t>ANAK</t>
+  </si>
+  <si>
+    <t>Kesehatan</t>
+  </si>
+  <si>
+    <t>TOTAL TUNJANGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POTONGAN </t>
+  </si>
+  <si>
+    <t>PAJAK</t>
+  </si>
+  <si>
+    <t>AKSES</t>
+  </si>
+  <si>
+    <t>TOTAL POTONGAN</t>
+  </si>
+  <si>
+    <t>GAJI BERSIH</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>EDDY DAVID, SE</t>
+  </si>
+  <si>
+    <t>HIDAYANI</t>
+  </si>
+  <si>
+    <t>LALA NUR HIDAYAH</t>
+  </si>
+  <si>
+    <t>ICHWANSYAH</t>
+  </si>
+  <si>
+    <t>EDSON D</t>
+  </si>
+  <si>
+    <t>M. YAHYA</t>
+  </si>
+  <si>
+    <t>SRI S</t>
+  </si>
+  <si>
+    <t>IFAN</t>
+  </si>
+  <si>
+    <t>DODI</t>
+  </si>
+  <si>
+    <t>RUDIANSYAH</t>
+  </si>
+  <si>
+    <t>DIREKTUR</t>
+  </si>
+  <si>
+    <t>STAP</t>
+  </si>
+  <si>
+    <t>PEMASARAN</t>
+  </si>
+  <si>
+    <t>PRODUKSI</t>
+  </si>
+  <si>
+    <t>PERSOANAL</t>
+  </si>
+  <si>
+    <t>ACCONTING</t>
+  </si>
+  <si>
+    <t>SEKERTARIS</t>
+  </si>
+  <si>
+    <t>MEKANIK</t>
+  </si>
+  <si>
+    <t>GAJI POKOK</t>
+  </si>
+  <si>
+    <t>GAJI RATA RATA</t>
+  </si>
+  <si>
+    <t>TOTAL GAJI BERSIH</t>
+  </si>
+  <si>
+    <t>CV.EDHA COMPUTER</t>
+  </si>
+  <si>
+    <t>JL. PEMUDA NO. 09 TELP. 736715 DAMARINDA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="14">
+    <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="General\ &quot;hari&quot;"/>
+    <numFmt numFmtId="167" formatCode="General\ &quot;karyawan&quot;"/>
+    <numFmt numFmtId="168" formatCode="hh\:mm\ &quot;WIT&quot;"/>
+    <numFmt numFmtId="169" formatCode="hh\ &quot;Jam&quot;\ mm\ &quot;Menit&quot;"/>
+    <numFmt numFmtId="170" formatCode="h\:mm\ &quot;WIT&quot;"/>
+    <numFmt numFmtId="171" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="h\ &quot;Jam&quot;\ mm\ &quot;Menit&quot;"/>
+    <numFmt numFmtId="173" formatCode="&quot;Lembur&quot;\ &quot;Rp&quot;\.\ General&quot;/Jam&quot;"/>
+    <numFmt numFmtId="174" formatCode="&quot;Jam kerja&quot;\ h\ &quot;Jam/hari&quot;"/>
+    <numFmt numFmtId="175" formatCode="0%\ &quot;DARI GAJI POKOK&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.0%\ &quot;DARI GAJI POKOK&quot;"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,8 +677,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +723,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD5D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -798,132 +1056,198 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -934,21 +1258,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,6 +1380,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFD5D5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1839,72 +2238,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
     </row>
     <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
@@ -1915,10 +2314,10 @@
       <c r="F7" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="57"/>
+      <c r="B9" s="105"/>
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -1930,10 +2329,10 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="57"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1972,361 +2371,361 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="107"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="46" t="s">
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="110"/>
+      <c r="H16" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="110"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="104"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="104"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="104"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="104"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="104"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="104"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>9</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="104"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>10</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="104"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>11</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="104"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>12</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="104"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>13</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="104"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>14</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="104"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>15</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="104"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>16</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="104"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="51"/>
+      <c r="B35" s="113"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="47"/>
+      <c r="C36" s="110"/>
       <c r="D36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="46" t="s">
+      <c r="F36" s="109"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="47"/>
+      <c r="I36" s="110"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="45"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="112"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="45"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="112"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="45"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="112"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="45"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="112"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="112"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>3</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="45"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="45"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="112"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>4</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="45"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="112"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="45"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="112"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>5</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="45"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="112"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="45"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="112"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
@@ -2746,18 +3145,52 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="A1:I6"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="B16:E16"/>
@@ -2774,52 +3207,18 @@
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <conditionalFormatting sqref="B70:B71">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
@@ -2853,172 +3252,172 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="T2" s="75" t="s">
+      <c r="T2" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="77"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="119"/>
+      <c r="AE2" s="119"/>
+      <c r="AF2" s="119"/>
+      <c r="AG2" s="120"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="T3" s="78" t="s">
+      <c r="T3" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="80"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="123"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="T4" s="68" t="s">
+      <c r="T4" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="79" t="s">
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="81" t="s">
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="82"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="125"/>
+      <c r="AG4" s="126"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="T5" s="68" t="s">
+      <c r="T5" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="79" t="s">
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Y5" s="79"/>
-      <c r="Z5" s="81" t="s">
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="81"/>
-      <c r="AF5" s="81"/>
-      <c r="AG5" s="82"/>
+      <c r="AA5" s="125"/>
+      <c r="AB5" s="125"/>
+      <c r="AC5" s="125"/>
+      <c r="AD5" s="125"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
+      <c r="AG5" s="126"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="T6" s="68" t="s">
+      <c r="T6" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="79" t="s">
+      <c r="U6" s="113"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="81" t="s">
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="81"/>
-      <c r="AE6" s="81"/>
-      <c r="AF6" s="81"/>
-      <c r="AG6" s="82"/>
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125"/>
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="126"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="T7" s="68" t="s">
+      <c r="T7" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="79" t="s">
+      <c r="U7" s="113"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="83" t="s">
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="83"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="83"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="127"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="127"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="T8" s="68" t="s">
+      <c r="T8" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="79" t="s">
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="83" t="s">
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="127"/>
+      <c r="AC8" s="127"/>
+      <c r="AD8" s="127"/>
+      <c r="AE8" s="127"/>
+      <c r="AF8" s="127"/>
+      <c r="AG8" s="127"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="T9" s="69" t="s">
+      <c r="T9" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="71" t="s">
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="63" t="s">
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="64"/>
+      <c r="AA9" s="131"/>
+      <c r="AB9" s="131"/>
+      <c r="AC9" s="131"/>
+      <c r="AD9" s="131"/>
+      <c r="AE9" s="131"/>
+      <c r="AF9" s="131"/>
+      <c r="AG9" s="132"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3027,44 +3426,44 @@
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="47"/>
-      <c r="AL11" s="72" t="s">
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="109"/>
+      <c r="AB11" s="109"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="109"/>
+      <c r="AE11" s="109"/>
+      <c r="AF11" s="109"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="109"/>
+      <c r="AI11" s="109"/>
+      <c r="AJ11" s="109"/>
+      <c r="AK11" s="110"/>
+      <c r="AL11" s="115" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3106,7 +3505,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="5"/>
-      <c r="AL12" s="73"/>
+      <c r="AL12" s="116"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -3216,7 +3615,7 @@
       <c r="AK13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AL13" s="74"/>
+      <c r="AL13" s="117"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -3639,18 +4038,18 @@
       <c r="AL23" s="1"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="65"/>
+      <c r="B25" s="133"/>
       <c r="K25" s="20"/>
-      <c r="AC25" s="60" t="s">
+      <c r="AC25" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="AD25" s="60"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="60"/>
+      <c r="AD25" s="139"/>
+      <c r="AE25" s="139"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="139"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3674,20 +4073,20 @@
       <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="M27" s="61" t="s">
+      <c r="M27" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="AB27" s="61" t="s">
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="AB27" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
+      <c r="AC27" s="138"/>
+      <c r="AD27" s="138"/>
+      <c r="AE27" s="138"/>
+      <c r="AF27" s="138"/>
+      <c r="AG27" s="138"/>
+      <c r="AH27" s="138"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3696,15 +4095,15 @@
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="AB28" s="59" t="s">
+      <c r="AB28" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="59"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="138"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="138"/>
+      <c r="AG28" s="138"/>
+      <c r="AH28" s="138"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3718,43 +4117,59 @@
       <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="L31" s="67" t="s">
+      <c r="L31" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="AB31" s="62" t="s">
+      <c r="M31" s="137"/>
+      <c r="N31" s="137"/>
+      <c r="O31" s="137"/>
+      <c r="P31" s="137"/>
+      <c r="AB31" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
-      <c r="AH31" s="62"/>
+      <c r="AC31" s="140"/>
+      <c r="AD31" s="140"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="140"/>
+      <c r="AG31" s="140"/>
+      <c r="AH31" s="140"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="L32" s="58" t="s">
+      <c r="L32" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="AB32" s="58" t="s">
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="138"/>
+      <c r="AB32" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="59"/>
-      <c r="AH32" s="59"/>
+      <c r="AC32" s="138"/>
+      <c r="AD32" s="138"/>
+      <c r="AE32" s="138"/>
+      <c r="AF32" s="138"/>
+      <c r="AG32" s="138"/>
+      <c r="AH32" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="AC25:AG25"/>
+    <mergeCell ref="AB27:AH27"/>
+    <mergeCell ref="AB28:AH28"/>
+    <mergeCell ref="AB32:AH32"/>
+    <mergeCell ref="AB31:AH31"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="C11:AG11"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:Y9"/>
     <mergeCell ref="AL11:AL13"/>
     <mergeCell ref="AH11:AK11"/>
     <mergeCell ref="T2:AG2"/>
@@ -3771,22 +4186,6 @@
     <mergeCell ref="X6:Y6"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="C11:AG11"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="AC25:AG25"/>
-    <mergeCell ref="AB27:AH27"/>
-    <mergeCell ref="AB28:AH28"/>
-    <mergeCell ref="AB32:AH32"/>
-    <mergeCell ref="AB31:AH31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3800,7 +4199,7 @@
   </sheetPr>
   <dimension ref="A2:AO39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F13" sqref="F13:G30"/>
     </sheetView>
   </sheetViews>
@@ -3818,357 +4217,357 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="77"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="119"/>
+      <c r="AE2" s="119"/>
+      <c r="AF2" s="119"/>
+      <c r="AG2" s="119"/>
+      <c r="AH2" s="119"/>
+      <c r="AI2" s="119"/>
+      <c r="AJ2" s="119"/>
+      <c r="AK2" s="119"/>
+      <c r="AL2" s="119"/>
+      <c r="AM2" s="120"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="P3" s="90" t="s">
+      <c r="P3" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="91"/>
-      <c r="AI3" s="91"/>
-      <c r="AJ3" s="91"/>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="92"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="154"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="154"/>
+      <c r="AG3" s="154"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="154"/>
+      <c r="AJ3" s="154"/>
+      <c r="AK3" s="154"/>
+      <c r="AL3" s="154"/>
+      <c r="AM3" s="155"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="146"/>
+      <c r="Z4" s="146"/>
       <c r="AA4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AB4" s="94" t="s">
+      <c r="AB4" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="97"/>
+      <c r="AC4" s="146"/>
+      <c r="AD4" s="146"/>
+      <c r="AE4" s="146"/>
+      <c r="AF4" s="146"/>
+      <c r="AG4" s="146"/>
+      <c r="AH4" s="146"/>
+      <c r="AI4" s="146"/>
+      <c r="AJ4" s="146"/>
+      <c r="AK4" s="146"/>
+      <c r="AL4" s="146"/>
+      <c r="AM4" s="149"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="P5" s="93" t="s">
+      <c r="P5" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="146"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
       <c r="AA5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AB5" s="94" t="s">
+      <c r="AB5" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="94"/>
-      <c r="AK5" s="94"/>
-      <c r="AL5" s="94"/>
-      <c r="AM5" s="97"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="146"/>
+      <c r="AG5" s="146"/>
+      <c r="AH5" s="146"/>
+      <c r="AI5" s="146"/>
+      <c r="AJ5" s="146"/>
+      <c r="AK5" s="146"/>
+      <c r="AL5" s="146"/>
+      <c r="AM5" s="149"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="P6" s="93" t="s">
+      <c r="P6" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
       <c r="AA6" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AB6" s="94" t="s">
+      <c r="AB6" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="94"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="94"/>
-      <c r="AI6" s="94"/>
-      <c r="AJ6" s="94"/>
-      <c r="AK6" s="94"/>
-      <c r="AL6" s="94"/>
-      <c r="AM6" s="97"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="146"/>
+      <c r="AF6" s="146"/>
+      <c r="AG6" s="146"/>
+      <c r="AH6" s="146"/>
+      <c r="AI6" s="146"/>
+      <c r="AJ6" s="146"/>
+      <c r="AK6" s="146"/>
+      <c r="AL6" s="146"/>
+      <c r="AM6" s="149"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="P7" s="93" t="s">
+      <c r="P7" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="146"/>
+      <c r="X7" s="146"/>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
       <c r="AA7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AB7" s="98" t="s">
+      <c r="AB7" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="150"/>
+      <c r="AF7" s="150"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="150"/>
+      <c r="AJ7" s="150"/>
+      <c r="AK7" s="150"/>
+      <c r="AL7" s="150"/>
+      <c r="AM7" s="150"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="P8" s="95" t="s">
+      <c r="P8" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="96"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="148"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148"/>
+      <c r="V8" s="148"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="148"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="148"/>
       <c r="AA8" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="AB8" s="99">
+      <c r="AB8" s="151">
         <v>2018</v>
       </c>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="99"/>
-      <c r="AI8" s="99"/>
-      <c r="AJ8" s="99"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="100"/>
+      <c r="AC8" s="151"/>
+      <c r="AD8" s="151"/>
+      <c r="AE8" s="151"/>
+      <c r="AF8" s="151"/>
+      <c r="AG8" s="151"/>
+      <c r="AH8" s="151"/>
+      <c r="AI8" s="151"/>
+      <c r="AJ8" s="151"/>
+      <c r="AK8" s="151"/>
+      <c r="AL8" s="151"/>
+      <c r="AM8" s="152"/>
     </row>
     <row r="10" spans="1:41" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="104" t="s">
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="104"/>
-      <c r="AF10" s="104"/>
-      <c r="AG10" s="104"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="101" t="s">
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="144"/>
+      <c r="X10" s="144"/>
+      <c r="Y10" s="144"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="144"/>
+      <c r="AB10" s="144"/>
+      <c r="AC10" s="144"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="144"/>
+      <c r="AF10" s="144"/>
+      <c r="AG10" s="144"/>
+      <c r="AH10" s="144"/>
+      <c r="AI10" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="AJ10" s="101"/>
-      <c r="AK10" s="101"/>
-      <c r="AL10" s="101"/>
-      <c r="AM10" s="101"/>
-      <c r="AN10" s="102" t="s">
+      <c r="AJ10" s="141"/>
+      <c r="AK10" s="141"/>
+      <c r="AL10" s="141"/>
+      <c r="AM10" s="141"/>
+      <c r="AN10" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="AO10" s="102" t="s">
+      <c r="AO10" s="142" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104">
+      <c r="A11" s="159"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="144">
         <v>1</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104">
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144">
         <v>2</v>
       </c>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104">
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="144">
         <v>3</v>
       </c>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="104">
+      <c r="S11" s="144"/>
+      <c r="T11" s="144"/>
+      <c r="U11" s="144"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="144"/>
+      <c r="X11" s="144"/>
+      <c r="Y11" s="144">
         <v>4</v>
       </c>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="104"/>
-      <c r="AD11" s="104"/>
-      <c r="AE11" s="104"/>
-      <c r="AF11" s="104">
+      <c r="Z11" s="144"/>
+      <c r="AA11" s="144"/>
+      <c r="AB11" s="144"/>
+      <c r="AC11" s="144"/>
+      <c r="AD11" s="144"/>
+      <c r="AE11" s="144"/>
+      <c r="AF11" s="144">
         <v>5</v>
       </c>
-      <c r="AG11" s="104"/>
-      <c r="AH11" s="104"/>
-      <c r="AI11" s="104"/>
-      <c r="AJ11" s="104"/>
-      <c r="AK11" s="104"/>
-      <c r="AL11" s="104"/>
+      <c r="AG11" s="144"/>
+      <c r="AH11" s="144"/>
+      <c r="AI11" s="144"/>
+      <c r="AJ11" s="144"/>
+      <c r="AK11" s="144"/>
+      <c r="AL11" s="144"/>
       <c r="AM11" s="27">
         <v>6</v>
       </c>
-      <c r="AN11" s="102"/>
-      <c r="AO11" s="102"/>
+      <c r="AN11" s="142"/>
+      <c r="AO11" s="142"/>
     </row>
     <row r="12" spans="1:41" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="103"/>
+      <c r="A12" s="159"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="26">
         <v>29</v>
       </c>
@@ -4277,8 +4676,8 @@
       <c r="AM12" s="26">
         <v>5</v>
       </c>
-      <c r="AN12" s="102"/>
-      <c r="AO12" s="102"/>
+      <c r="AN12" s="142"/>
+      <c r="AO12" s="142"/>
     </row>
     <row r="13" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -5115,108 +5514,114 @@
       <c r="A32" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="88"/>
+      <c r="C32" s="156"/>
     </row>
     <row r="33" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L33" s="85" t="s">
+      <c r="L33" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
-      <c r="AD33" s="85" t="s">
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="157"/>
+      <c r="P33" s="157"/>
+      <c r="Q33" s="157"/>
+      <c r="AD33" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="AE33" s="85"/>
-      <c r="AF33" s="85"/>
-      <c r="AG33" s="85"/>
-      <c r="AH33" s="85"/>
-      <c r="AI33" s="85"/>
-      <c r="AJ33" s="85"/>
-      <c r="AK33" s="85"/>
+      <c r="AE33" s="157"/>
+      <c r="AF33" s="157"/>
+      <c r="AG33" s="157"/>
+      <c r="AH33" s="157"/>
+      <c r="AI33" s="157"/>
+      <c r="AJ33" s="157"/>
+      <c r="AK33" s="157"/>
     </row>
     <row r="34" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L34" s="85" t="s">
+      <c r="L34" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="AD34" s="85" t="s">
+      <c r="M34" s="157"/>
+      <c r="N34" s="157"/>
+      <c r="O34" s="157"/>
+      <c r="P34" s="157"/>
+      <c r="Q34" s="157"/>
+      <c r="AD34" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="AE34" s="85"/>
-      <c r="AF34" s="85"/>
-      <c r="AG34" s="85"/>
-      <c r="AH34" s="85"/>
-      <c r="AI34" s="85"/>
-      <c r="AJ34" s="85"/>
-      <c r="AK34" s="85"/>
+      <c r="AE34" s="157"/>
+      <c r="AF34" s="157"/>
+      <c r="AG34" s="157"/>
+      <c r="AH34" s="157"/>
+      <c r="AI34" s="157"/>
+      <c r="AJ34" s="157"/>
+      <c r="AK34" s="157"/>
     </row>
     <row r="38" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="M38" s="86" t="s">
+      <c r="M38" s="158" t="s">
         <v>96</v>
       </c>
-      <c r="N38" s="86"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="86"/>
-      <c r="AD38" s="86" t="s">
+      <c r="N38" s="158"/>
+      <c r="O38" s="158"/>
+      <c r="P38" s="158"/>
+      <c r="AD38" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="AE38" s="86"/>
-      <c r="AF38" s="86"/>
-      <c r="AG38" s="86"/>
-      <c r="AH38" s="86"/>
-      <c r="AI38" s="86"/>
-      <c r="AJ38" s="86"/>
-      <c r="AK38" s="86"/>
+      <c r="AE38" s="158"/>
+      <c r="AF38" s="158"/>
+      <c r="AG38" s="158"/>
+      <c r="AH38" s="158"/>
+      <c r="AI38" s="158"/>
+      <c r="AJ38" s="158"/>
+      <c r="AK38" s="158"/>
     </row>
     <row r="39" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L39" s="84" t="s">
+      <c r="L39" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="84"/>
-      <c r="AD39" s="87" t="s">
+      <c r="M39" s="161"/>
+      <c r="N39" s="161"/>
+      <c r="O39" s="161"/>
+      <c r="P39" s="161"/>
+      <c r="Q39" s="161"/>
+      <c r="AD39" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="AE39" s="87"/>
-      <c r="AF39" s="87"/>
-      <c r="AG39" s="87"/>
-      <c r="AH39" s="87"/>
-      <c r="AI39" s="87"/>
-      <c r="AJ39" s="87"/>
-      <c r="AK39" s="87"/>
+      <c r="AE39" s="162"/>
+      <c r="AF39" s="162"/>
+      <c r="AG39" s="162"/>
+      <c r="AH39" s="162"/>
+      <c r="AI39" s="162"/>
+      <c r="AJ39" s="162"/>
+      <c r="AK39" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="AI10:AM10"/>
-    <mergeCell ref="AN10:AN12"/>
-    <mergeCell ref="AO10:AO12"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="L39:Q39"/>
+    <mergeCell ref="AD33:AK33"/>
+    <mergeCell ref="AD34:AK34"/>
+    <mergeCell ref="AD38:AK38"/>
+    <mergeCell ref="AD39:AK39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AF11:AJ11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="V11:X11"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="K11:O11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:AH10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="P2:AM2"/>
+    <mergeCell ref="P3:AM3"/>
+    <mergeCell ref="P4:Z4"/>
+    <mergeCell ref="P5:Z5"/>
+    <mergeCell ref="P6:Z6"/>
     <mergeCell ref="P7:Z7"/>
     <mergeCell ref="P8:Z8"/>
     <mergeCell ref="AB4:AM4"/>
@@ -5224,24 +5629,1100 @@
     <mergeCell ref="AB6:AM6"/>
     <mergeCell ref="AB7:AM7"/>
     <mergeCell ref="AB8:AM8"/>
-    <mergeCell ref="P2:AM2"/>
-    <mergeCell ref="P3:AM3"/>
-    <mergeCell ref="P4:Z4"/>
-    <mergeCell ref="P5:Z5"/>
-    <mergeCell ref="P6:Z6"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="L39:Q39"/>
-    <mergeCell ref="AD33:AK33"/>
-    <mergeCell ref="AD34:AK34"/>
-    <mergeCell ref="AD38:AK38"/>
-    <mergeCell ref="AD39:AK39"/>
+    <mergeCell ref="AI10:AM10"/>
+    <mergeCell ref="AN10:AN12"/>
+    <mergeCell ref="AO10:AO12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AF11:AJ11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="V11:X11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05CDAD5-8209-4AAD-9F2F-E258BE6CE10F}">
+  <dimension ref="A4:N34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="91">
+        <v>0.375</v>
+      </c>
+      <c r="J4" s="87">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>1</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="53">
+        <v>37065</v>
+      </c>
+      <c r="D6" s="62">
+        <v>41529</v>
+      </c>
+      <c r="E6" s="69">
+        <v>0.3125</v>
+      </c>
+      <c r="F6" s="69">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G6" s="66">
+        <f>F6-E6</f>
+        <v>0.47916666666666663</v>
+      </c>
+      <c r="H6" s="83">
+        <f>G6-$H$4</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="I6" s="84">
+        <f>D6-C6</f>
+        <v>4464</v>
+      </c>
+      <c r="J6" s="82">
+        <f>(H6*24)*$J$4</f>
+        <v>12499.999999999996</v>
+      </c>
+      <c r="L6" s="97">
+        <v>500000</v>
+      </c>
+      <c r="M6" s="96">
+        <v>0.12</v>
+      </c>
+      <c r="N6" s="97">
+        <f>L6*M6</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="49">
+        <v>2</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="54">
+        <v>37873</v>
+      </c>
+      <c r="D7" s="60">
+        <v>41995</v>
+      </c>
+      <c r="E7" s="70">
+        <v>0.3125</v>
+      </c>
+      <c r="F7" s="70">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="G7" s="67">
+        <f>F7-E7</f>
+        <v>0.42708333333333337</v>
+      </c>
+      <c r="H7" s="83">
+        <f>G7-$H$4</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="I7" s="85">
+        <f>D7-C7</f>
+        <v>4122</v>
+      </c>
+      <c r="J7" s="86">
+        <f>(H7*24)*$J$4</f>
+        <v>6250.0000000000045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="49">
+        <v>3</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="54">
+        <v>36614</v>
+      </c>
+      <c r="D8" s="60">
+        <v>41921</v>
+      </c>
+      <c r="E8" s="70">
+        <v>0.3125</v>
+      </c>
+      <c r="F8" s="70">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G8" s="67">
+        <f>F8-E8</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="H8" s="83">
+        <f>G8-$H$4</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="I8" s="85">
+        <f>D8-C8</f>
+        <v>5307</v>
+      </c>
+      <c r="J8" s="86">
+        <f>(H8*24)*$J$4</f>
+        <v>10000.000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="49">
+        <v>4</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="54">
+        <v>37304</v>
+      </c>
+      <c r="D9" s="60">
+        <v>41079</v>
+      </c>
+      <c r="E9" s="70">
+        <v>0.3125</v>
+      </c>
+      <c r="F9" s="70">
+        <v>0.8125</v>
+      </c>
+      <c r="G9" s="67">
+        <f>F9-E9</f>
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="83">
+        <f>G9-$H$4</f>
+        <v>0.125</v>
+      </c>
+      <c r="I9" s="85">
+        <f>D9-C9</f>
+        <v>3775</v>
+      </c>
+      <c r="J9" s="86">
+        <f>(H9*24)*$J$4</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="50">
+        <v>5</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="55">
+        <v>37959</v>
+      </c>
+      <c r="D10" s="63">
+        <v>41509</v>
+      </c>
+      <c r="E10" s="71">
+        <v>0.3125</v>
+      </c>
+      <c r="F10" s="71">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="68">
+        <f>F10-E10</f>
+        <v>0.4375</v>
+      </c>
+      <c r="H10" s="83">
+        <f>G10-$H$4</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I10" s="85">
+        <f>D10-C10</f>
+        <v>3550</v>
+      </c>
+      <c r="J10" s="86">
+        <f>(H10*24)*$J$4</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="88">
+        <f>SUM(I6:I10)</f>
+        <v>21218</v>
+      </c>
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="89">
+        <f>AVERAGE(I6:I10)</f>
+        <v>4243.6000000000004</v>
+      </c>
+      <c r="J12" s="45"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H13" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="89">
+        <f>MAX(I6:I10)</f>
+        <v>5307</v>
+      </c>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H14" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="89">
+        <f>MIN(I6:I10)</f>
+        <v>3550</v>
+      </c>
+      <c r="J14" s="45"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H15" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="90">
+        <f>COUNT(I6:I10)</f>
+        <v>5</v>
+      </c>
+      <c r="J15" s="45"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="93"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="77"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="77"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="77"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="77"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="77"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="78"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="78"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="78"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="78"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E206CA2-5300-4781-A95E-ADFD46C8663D}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="188" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="189" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="163" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="166" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="166" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="166" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="169" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="170"/>
+      <c r="G3" s="166" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="169" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="170"/>
+      <c r="J3" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="166" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="164"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="171" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="171" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="167"/>
+      <c r="H4" s="171" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="171" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="165"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="172">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="172">
+        <v>0.15</v>
+      </c>
+      <c r="G5" s="168"/>
+      <c r="H5" s="174">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="173">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="175" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="176" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="176" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="177">
+        <v>500000</v>
+      </c>
+      <c r="E6" s="177">
+        <f>D6*$E$5</f>
+        <v>50000</v>
+      </c>
+      <c r="F6" s="178">
+        <f>D6*$F$5</f>
+        <v>75000</v>
+      </c>
+      <c r="G6" s="178">
+        <f>E6+F6</f>
+        <v>125000</v>
+      </c>
+      <c r="H6" s="177">
+        <f>D6*$H$5</f>
+        <v>25000</v>
+      </c>
+      <c r="I6" s="177">
+        <f>D6*$I$5</f>
+        <v>12500</v>
+      </c>
+      <c r="J6" s="177">
+        <f>H6+I6</f>
+        <v>37500</v>
+      </c>
+      <c r="K6" s="184">
+        <f>D6+G6-J6</f>
+        <v>587500</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="179" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="99">
+        <v>320000</v>
+      </c>
+      <c r="E7" s="99">
+        <f t="shared" ref="E7:E15" si="0">D7*$E$5</f>
+        <v>32000</v>
+      </c>
+      <c r="F7" s="98">
+        <f t="shared" ref="F7:F15" si="1">D7*$F$5</f>
+        <v>48000</v>
+      </c>
+      <c r="G7" s="98">
+        <f t="shared" ref="G7:G15" si="2">E7+F7</f>
+        <v>80000</v>
+      </c>
+      <c r="H7" s="99">
+        <f t="shared" ref="H7:H15" si="3">D7*$H$5</f>
+        <v>16000</v>
+      </c>
+      <c r="I7" s="99">
+        <f t="shared" ref="I7:I15" si="4">D7*$I$5</f>
+        <v>8000</v>
+      </c>
+      <c r="J7" s="99">
+        <f t="shared" ref="J7:J15" si="5">H7+I7</f>
+        <v>24000</v>
+      </c>
+      <c r="K7" s="185">
+        <f t="shared" ref="K7:K15" si="6">D7+G7-J7</f>
+        <v>376000</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="179" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="99">
+        <v>220000</v>
+      </c>
+      <c r="E8" s="99">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+      <c r="F8" s="98">
+        <f t="shared" si="1"/>
+        <v>33000</v>
+      </c>
+      <c r="G8" s="98">
+        <f t="shared" si="2"/>
+        <v>55000</v>
+      </c>
+      <c r="H8" s="99">
+        <f t="shared" si="3"/>
+        <v>11000</v>
+      </c>
+      <c r="I8" s="99">
+        <f t="shared" si="4"/>
+        <v>5500</v>
+      </c>
+      <c r="J8" s="99">
+        <f t="shared" si="5"/>
+        <v>16500</v>
+      </c>
+      <c r="K8" s="185">
+        <f t="shared" si="6"/>
+        <v>258500</v>
+      </c>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="179" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="99">
+        <v>350000</v>
+      </c>
+      <c r="E9" s="99">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="F9" s="98">
+        <f t="shared" si="1"/>
+        <v>52500</v>
+      </c>
+      <c r="G9" s="98">
+        <f t="shared" si="2"/>
+        <v>87500</v>
+      </c>
+      <c r="H9" s="99">
+        <f t="shared" si="3"/>
+        <v>17500</v>
+      </c>
+      <c r="I9" s="99">
+        <f t="shared" si="4"/>
+        <v>8750</v>
+      </c>
+      <c r="J9" s="99">
+        <f t="shared" si="5"/>
+        <v>26250</v>
+      </c>
+      <c r="K9" s="185">
+        <f t="shared" si="6"/>
+        <v>411250</v>
+      </c>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="179" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="99">
+        <v>330000</v>
+      </c>
+      <c r="E10" s="99">
+        <f t="shared" si="0"/>
+        <v>33000</v>
+      </c>
+      <c r="F10" s="98">
+        <f t="shared" si="1"/>
+        <v>49500</v>
+      </c>
+      <c r="G10" s="98">
+        <f t="shared" si="2"/>
+        <v>82500</v>
+      </c>
+      <c r="H10" s="99">
+        <f t="shared" si="3"/>
+        <v>16500</v>
+      </c>
+      <c r="I10" s="99">
+        <f t="shared" si="4"/>
+        <v>8250</v>
+      </c>
+      <c r="J10" s="99">
+        <f t="shared" si="5"/>
+        <v>24750</v>
+      </c>
+      <c r="K10" s="185">
+        <f t="shared" si="6"/>
+        <v>387750</v>
+      </c>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="179" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="99">
+        <v>275000</v>
+      </c>
+      <c r="E11" s="99">
+        <f t="shared" si="0"/>
+        <v>27500</v>
+      </c>
+      <c r="F11" s="98">
+        <f t="shared" si="1"/>
+        <v>41250</v>
+      </c>
+      <c r="G11" s="98">
+        <f t="shared" si="2"/>
+        <v>68750</v>
+      </c>
+      <c r="H11" s="99">
+        <f t="shared" si="3"/>
+        <v>13750</v>
+      </c>
+      <c r="I11" s="99">
+        <f t="shared" si="4"/>
+        <v>6875</v>
+      </c>
+      <c r="J11" s="99">
+        <f t="shared" si="5"/>
+        <v>20625</v>
+      </c>
+      <c r="K11" s="185">
+        <f t="shared" si="6"/>
+        <v>323125</v>
+      </c>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="179" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="99">
+        <v>255000</v>
+      </c>
+      <c r="E12" s="99">
+        <f t="shared" si="0"/>
+        <v>25500</v>
+      </c>
+      <c r="F12" s="98">
+        <f t="shared" si="1"/>
+        <v>38250</v>
+      </c>
+      <c r="G12" s="98">
+        <f t="shared" si="2"/>
+        <v>63750</v>
+      </c>
+      <c r="H12" s="99">
+        <f t="shared" si="3"/>
+        <v>12750</v>
+      </c>
+      <c r="I12" s="99">
+        <f t="shared" si="4"/>
+        <v>6375</v>
+      </c>
+      <c r="J12" s="99">
+        <f t="shared" si="5"/>
+        <v>19125</v>
+      </c>
+      <c r="K12" s="185">
+        <f t="shared" si="6"/>
+        <v>299625</v>
+      </c>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="179" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="99">
+        <v>255000</v>
+      </c>
+      <c r="E13" s="99">
+        <f t="shared" si="0"/>
+        <v>25500</v>
+      </c>
+      <c r="F13" s="98">
+        <f t="shared" si="1"/>
+        <v>38250</v>
+      </c>
+      <c r="G13" s="98">
+        <f t="shared" si="2"/>
+        <v>63750</v>
+      </c>
+      <c r="H13" s="99">
+        <f t="shared" si="3"/>
+        <v>12750</v>
+      </c>
+      <c r="I13" s="99">
+        <f t="shared" si="4"/>
+        <v>6375</v>
+      </c>
+      <c r="J13" s="99">
+        <f t="shared" si="5"/>
+        <v>19125</v>
+      </c>
+      <c r="K13" s="185">
+        <f t="shared" si="6"/>
+        <v>299625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="179" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="99">
+        <v>175000</v>
+      </c>
+      <c r="E14" s="99">
+        <f t="shared" si="0"/>
+        <v>17500</v>
+      </c>
+      <c r="F14" s="98">
+        <f t="shared" si="1"/>
+        <v>26250</v>
+      </c>
+      <c r="G14" s="98">
+        <f t="shared" si="2"/>
+        <v>43750</v>
+      </c>
+      <c r="H14" s="99">
+        <f t="shared" si="3"/>
+        <v>8750</v>
+      </c>
+      <c r="I14" s="99">
+        <f t="shared" si="4"/>
+        <v>4375</v>
+      </c>
+      <c r="J14" s="99">
+        <f t="shared" si="5"/>
+        <v>13125</v>
+      </c>
+      <c r="K14" s="185">
+        <f t="shared" si="6"/>
+        <v>205625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="179" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="99">
+        <v>250000</v>
+      </c>
+      <c r="E15" s="99">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="F15" s="98">
+        <f t="shared" si="1"/>
+        <v>37500</v>
+      </c>
+      <c r="G15" s="98">
+        <f t="shared" si="2"/>
+        <v>62500</v>
+      </c>
+      <c r="H15" s="99">
+        <f t="shared" si="3"/>
+        <v>12500</v>
+      </c>
+      <c r="I15" s="180">
+        <f t="shared" si="4"/>
+        <v>6250</v>
+      </c>
+      <c r="J15" s="180">
+        <f t="shared" si="5"/>
+        <v>18750</v>
+      </c>
+      <c r="K15" s="186">
+        <f t="shared" si="6"/>
+        <v>293750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="190" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" s="182"/>
+      <c r="K16" s="187">
+        <f>SUM(K6:K15)</f>
+        <v>3442750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="191" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" s="183"/>
+      <c r="K17" s="187">
+        <f>AVERAGE(K6:K15)</f>
+        <v>344275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="D3:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="A6:A15" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>